--- a/02_MasterWifoMannheim/99_Backup/Course50.xlsx
+++ b/02_MasterWifoMannheim/99_Backup/Course50.xlsx
@@ -1,139 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mailunimannheimde-my.sharepoint.com/personal/pstapf_mail_uni-mannheim_de/Documents/Uni/Master/Masterarbeit/Course_Suggestion/02_MasterWifoMannheim/03_Courses/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_2B59D2BFD3D0DB4B639A2011596D00B757BBFAD6" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{067B41D8-AEF1-490A-BB00-2C01069CDB2F}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Modul</t>
-  </si>
-  <si>
-    <t>TAX 521 Fallstudien zur Besteuerung der Unternehmen</t>
-  </si>
-  <si>
-    <t>Lerninhalte</t>
-  </si>
-  <si>
-    <t> Steuerplanung bei Personengesellschaften,  Steuerplanung bei Kapitalgesellschaften,  Grunderwerbsteuer,  Umwandlungen und Umstrukturierungen,  Unternehmenskäufe.</t>
-  </si>
-  <si>
-    <t>Lern- und Qualifikationsziele</t>
-  </si>
-  <si>
-    <t>Die Teilnehmer vertiefen Einzelnormen, welche im Rahmen der laufenden Personen- und Kapitalgesellschaften in Bezug auf die Steuergestaltung besondere Bedeutung haben. Die Teilnehmer sollen lernen, wirtschaftliche Gestaltungen steuerlich zu optimieren. Besonderes Gewicht der Veranstaltung liegt auf Unternehmensumstrukturierungen und dem Erarbeiten steuereffizienter Gestaltungen.</t>
-  </si>
-  <si>
-    <t>Voraussetzungen</t>
-  </si>
-  <si>
-    <t>Anmeldepflicht</t>
-  </si>
-  <si>
-    <t>Weitere Infos zur Anmeldung: -</t>
-  </si>
-  <si>
-    <t>Lehrveranstaltungen und -formPräsenzstudium Selbststudium Vorlesung 2 6</t>
-  </si>
-  <si>
-    <t>ECTS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Prüfungsform und -umfang</t>
-  </si>
-  <si>
-    <t>Schriftliche Klausur (45 Min.)</t>
-  </si>
-  <si>
-    <t>Vorleistungen</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Dozent(en)/Modulverantwortlicher</t>
-  </si>
-  <si>
-    <t>Prof. Dr. Matthias Rogall (Dozent) / Prof. Dr. Philipp Dörrenberg (Modulverantwortlicher)</t>
-  </si>
-  <si>
-    <t>Dauer des Moduls</t>
-  </si>
-  <si>
-    <t>1 Semester</t>
-  </si>
-  <si>
-    <t>Angebotsturnus</t>
-  </si>
-  <si>
-    <t>FSS</t>
-  </si>
-  <si>
-    <t>Sprache</t>
-  </si>
-  <si>
-    <t>Deutsch</t>
-  </si>
-  <si>
-    <t>Programmspezifische Lernziele</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>benotet</t>
-  </si>
-  <si>
-    <t>Verwendbarkeit</t>
-  </si>
-  <si>
-    <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt. Inf., LL.M., M.Sc. VWL</t>
-  </si>
-  <si>
-    <t>Accounting and Taxation (AAT)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -148,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -472,143 +420,209 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
+    <row r="1">
+      <c r="A1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B1" s="1">
+      <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>28</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Modul</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>TAX 521 Fallstudien zur Besteuerung der Unternehmen</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Lerninhalte</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t> Steuerplanung bei Personengesellschaften,  Steuerplanung bei Kapitalgesellschaften,  Grunderwerbsteuer,  Umwandlungen und Umstrukturierungen,  Unternehmenskäufe.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Lern- und Qualifikationsziele</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Die Teilnehmer vertiefen Einzelnormen, welche im Rahmen der laufenden Personen- und Kapitalgesellschaften in Bezug auf die Steuergestaltung besondere Bedeutung haben. Die Teilnehmer sollen lernen, wirtschaftliche Gestaltungen steuerlich zu optimieren. Besonderes Gewicht der Veranstaltung liegt auf Unternehmensumstrukturierungen und dem Erarbeiten steuereffizienter Gestaltungen.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Voraussetzungen</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Accounting and Taxation (AAT)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Anmeldepflicht</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Weitere Infos zur Anmeldung: -</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Lehrveranstaltungen und -formPräsenzstudium Selbststudium Vorlesung 2 6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>ECTS</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Prüfungsform und -umfang</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Schriftliche Klausur (45 Min.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Vorleistungen</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Dozent(en)/Modulverantwortlicher</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Prof. Dr. Matthias Rogall (Dozent) / Prof. Dr. Philipp Dörrenberg (Modulverantwortlicher)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Dauer des Moduls</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1 Semester</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Offering</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>SSS</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Sprache</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Deutsch</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Programmspezifische Lernziele</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Note</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>benotet</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Verwendbarkeit</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>M.Sc. MMM, M.Sc. Wipäd, M.Sc. Wirt. Inf., LL.M., M.Sc. VWL</t>
+        </is>
       </c>
     </row>
   </sheetData>
